--- a/medicine/Enfance/Lucio_Mad/Lucio_Mad.xlsx
+++ b/medicine/Enfance/Lucio_Mad/Lucio_Mad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lucio Mad est un écrivain et metteur en scène de théâtre français, né le 5 août 1962 à Paris et mort le 31 août 2005 dans la même ville[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lucio Mad est un écrivain et metteur en scène de théâtre français, né le 5 août 1962 à Paris et mort le 31 août 2005 dans la même ville.
 Il a également publié des ouvrages de littérature pour la jeunesse sous le pseudonyme de Prof'Lu.
 </t>
         </is>
@@ -514,12 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière
-De son vrai nom Éric-Henri Madelin, il fonde dans les années 1980 la compagnie théâtrale « L'Asile culturel » et met en scène plusieurs pièces de Philippe Soupault dont Rendez-vous et Étranger dans la nuit.
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De son vrai nom Éric-Henri Madelin, il fonde dans les années 1980 la compagnie théâtrale « L'Asile culturel » et met en scène plusieurs pièces de Philippe Soupault dont Rendez-vous et Étranger dans la nuit.
 En 1995, il publie son premier roman, Les Trafiqueurs.
-Il meurt en 2005 à 43 ans d'un cancer du poumon et est incinéré puis inhumé au crématorium-columbarium du Père-Lachaise (division 87, case n° 20 804)[2].
-Vie privée
-Il a pour frère cadet le dramaturge, scénariste et acteur français Gabor Rassov.
+Il meurt en 2005 à 43 ans d'un cancer du poumon et est incinéré puis inhumé au crématorium-columbarium du Père-Lachaise (division 87, case n° 20 804).
 </t>
         </is>
       </c>
@@ -545,53 +560,165 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a pour frère cadet le dramaturge, scénariste et acteur français Gabor Rassov.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lucio_Mad</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucio_Mad</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-sous le pseudonyme de Lucio Mad
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>sous le pseudonyme de Lucio Mad
 Les Trafiqueurs, éd. Gallimard, 1995  (ISBN 2-07-074093-5)
 Dakar en barre, coll. « Le Poulpe »,  éd. Baleine, 1997  (ISBN 2-84219-058-0)
 Bamako, coll. « Tourisme et polar »,  éd. Baleine, 1998  (ISBN 2-84219-177-3)
 Paradis B, coll. « La Noire »,  éd. Gallimard, 1998  (ISBN 2-07-049791-7)
 sous le pseudonyme de Sugar Brown
-Le rap m'a tuer, Vauvenargues, coll. « Faits divers » no 10, 2001  (ISBN 2-7443-0628-2)
-Nouvelles
-La Drogue, Sharon et le Paris-St-Germain, dans le recueil Noces d'or 1945-1995,  coll. « Série noire », éd. Gallimard, 1995
-Fume ! fume ! fume !, Libération, 16 juillet 1998[3]
-Littérature d'enfance et de jeunesse
-Et hop ! Hip-hop !, coll. « Souris noire » no 51,  éd. Syros, 2000  (ISBN 2-84146-887-9)
+Le rap m'a tuer, Vauvenargues, coll. « Faits divers » no 10, 2001  (ISBN 2-7443-0628-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lucio_Mad</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucio_Mad</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Drogue, Sharon et le Paris-St-Germain, dans le recueil Noces d'or 1945-1995,  coll. « Série noire », éd. Gallimard, 1995
+Fume ! fume ! fume !, Libération, 16 juillet 1998</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lucio_Mad</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lucio_Mad</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Et hop ! Hip-hop !, coll. « Souris noire » no 51,  éd. Syros, 2000  (ISBN 2-84146-887-9)
 Bob Marley, la star légendaire du reggae, coll. « Collection Lucy », éd. Cauris, 2004  (ISBN 2-914605-15-3)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Lucio_Mad</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lucio_Mad</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Théâtre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1996 : Kaïdara de Amadou Hampâté Bâ, adaptation de Gabor Rassov, Printemps des comédiens (Montpellier), puis théâtre La Piscine de Châtenay-Malabry
 2005 : Consulat zénéral d'Aminata Zaaria, théâtre de la Tempête
@@ -602,31 +729,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Lucio_Mad</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Lucio_Mad</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>2009 : Black de Pierre Laffargue - en tant que scénariste</t>
         </is>
